--- a/db/test/rainbow/db/dao/object/TestData.xlsx
+++ b/db/test/rainbow/db/dao/object/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\code\rainbow\db\test\rainbow\db\dao\object\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18683" windowHeight="9248"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18683" windowHeight="9248" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_Person" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>iPhone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1083,15 +1087,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,8 +1114,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1124,8 +1134,11 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>39995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1141,8 +1154,11 @@
       <c r="E3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>39996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1158,8 +1174,11 @@
       <c r="E4">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>39997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1175,8 +1194,11 @@
       <c r="E5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>39998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1192,8 +1214,11 @@
       <c r="E6">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>39999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1209,8 +1234,11 @@
       <c r="E7">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1226,8 +1254,11 @@
       <c r="E8">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1243,8 +1274,11 @@
       <c r="E9">
         <v>800</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1260,8 +1294,11 @@
       <c r="E10">
         <v>900</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1277,8 +1314,11 @@
       <c r="E11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -1294,8 +1334,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>102</v>
       </c>
@@ -1311,8 +1354,11 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>103</v>
       </c>
@@ -1328,8 +1374,11 @@
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>40007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>104</v>
       </c>
@@ -1345,8 +1394,11 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>40008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>105</v>
       </c>
@@ -1362,8 +1414,11 @@
       <c r="E16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>40009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>106</v>
       </c>
@@ -1379,8 +1434,11 @@
       <c r="E17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>107</v>
       </c>
@@ -1396,8 +1454,11 @@
       <c r="E18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>40011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>108</v>
       </c>
@@ -1413,8 +1474,11 @@
       <c r="E19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>40012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>109</v>
       </c>
@@ -1430,8 +1494,11 @@
       <c r="E20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>40013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>110</v>
       </c>
@@ -1446,6 +1513,9 @@
       </c>
       <c r="E21">
         <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>40014</v>
       </c>
     </row>
   </sheetData>
